--- a/data/RawData/ObsData/2001-2009/01-02-2003.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-02-2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB822865-5164-46FC-8AB7-136CABA2A6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87A8A1-6F6B-45DD-9BD0-EB907B601D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3853,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:G113"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="M174" sqref="M174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9221,7 +9221,7 @@
         <v>844</v>
       </c>
       <c r="M168" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N168" s="23" t="s">
         <v>295</v>
@@ -9250,7 +9250,7 @@
         <v>845</v>
       </c>
       <c r="M169" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N169" s="23" t="s">
         <v>848</v>
@@ -9289,7 +9289,7 @@
         <v>846</v>
       </c>
       <c r="M170" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N170" s="23" t="s">
         <v>286</v>

--- a/data/RawData/ObsData/2001-2009/01-02-2003.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-02-2003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87A8A1-6F6B-45DD-9BD0-EB907B601D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896FB61D-C322-4A42-BE1D-7A1D45385E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="896">
   <si>
     <t>Emmen</t>
   </si>
@@ -2678,9 +2678,6 @@
   </si>
   <si>
     <t>4322-pif</t>
-  </si>
-  <si>
-    <t>ST322</t>
   </si>
   <si>
     <t>SJ36</t>
@@ -3853,31 +3850,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="M174" sqref="M174"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -3896,7 +3893,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>40</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4004,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -4085,7 +4082,7 @@
       </c>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
         <v>65</v>
@@ -4122,7 +4119,7 @@
       </c>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="16" t="s">
         <v>71</v>
@@ -4159,7 +4156,7 @@
       </c>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
         <v>12</v>
@@ -4194,7 +4191,7 @@
       </c>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16" t="s">
         <v>13</v>
@@ -4250,7 +4247,7 @@
       </c>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>77</v>
@@ -4275,7 +4272,7 @@
       </c>
       <c r="O12" s="37"/>
     </row>
-    <row r="13" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16" t="s">
         <v>80</v>
@@ -4300,7 +4297,7 @@
       </c>
       <c r="O13" s="32"/>
     </row>
-    <row r="14" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="16" t="s">
         <v>4</v>
@@ -4321,7 +4318,7 @@
       <c r="N14" s="39"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4338,7 +4335,7 @@
       <c r="N15" s="39"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>2</v>
       </c>
@@ -4367,7 +4364,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>89</v>
       </c>
@@ -4408,7 +4405,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="16" t="s">
         <v>95</v>
@@ -4486,7 +4483,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
         <v>122</v>
@@ -4521,7 +4518,7 @@
       </c>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
         <v>102</v>
@@ -4558,7 +4555,7 @@
       </c>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>124</v>
@@ -4583,7 +4580,7 @@
         <v>94</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>881</v>
+        <v>93</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>6</v>
@@ -4694,7 +4691,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>6</v>
@@ -4704,7 +4701,7 @@
       </c>
       <c r="O25" s="19"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="16" t="s">
         <v>109</v>
@@ -4768,7 +4765,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4898,7 +4895,7 @@
       </c>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="16" t="s">
         <v>274</v>
@@ -5146,9 +5143,9 @@
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
     </row>
-    <row r="40" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>266</v>
@@ -5168,7 +5165,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="2"/>
       <c r="I40" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>239</v>
@@ -5187,7 +5184,7 @@
       </c>
       <c r="O40" s="16"/>
     </row>
-    <row r="41" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19" t="s">
         <v>147</v>
@@ -5216,9 +5213,9 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>265</v>
@@ -5255,7 +5252,7 @@
       </c>
       <c r="O42" s="16"/>
     </row>
-    <row r="43" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="28" t="s">
         <v>872</v>
@@ -5321,7 +5318,7 @@
       </c>
       <c r="O44" s="16"/>
     </row>
-    <row r="45" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="28" t="s">
         <v>155</v>
@@ -5354,7 +5351,7 @@
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19" t="s">
         <v>149</v>
@@ -5381,7 +5378,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19" t="s">
         <v>150</v>
@@ -5422,7 +5419,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>143</v>
       </c>
@@ -5498,7 +5495,7 @@
       </c>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5527,7 +5524,7 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>813</v>
       </c>
@@ -5564,7 +5561,7 @@
       </c>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="1:15" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5591,7 +5588,7 @@
       </c>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>40</v>
       </c>
@@ -5645,7 +5642,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="47"/>
       <c r="J54" s="47" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K54" s="47" t="s">
         <v>309</v>
@@ -5655,11 +5652,11 @@
         <v>6</v>
       </c>
       <c r="N54" s="48" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O54" s="47"/>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>172</v>
       </c>
@@ -5684,7 +5681,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
@@ -5694,7 +5691,7 @@
       </c>
       <c r="O55" s="19"/>
     </row>
-    <row r="56" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>180</v>
       </c>
@@ -5733,7 +5730,7 @@
       </c>
       <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16" t="s">
         <v>874</v>
@@ -5752,7 +5749,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="47"/>
       <c r="J57" s="47" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
@@ -5760,7 +5757,7 @@
       <c r="N57" s="47"/>
       <c r="O57" s="47"/>
     </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="16" t="s">
         <v>875</v>
@@ -5779,7 +5776,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="47"/>
       <c r="J58" s="47" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
@@ -5787,7 +5784,7 @@
       <c r="N58" s="47"/>
       <c r="O58" s="47"/>
     </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="16" t="s">
         <v>876</v>
@@ -5822,7 +5819,7 @@
       </c>
       <c r="O59" s="19"/>
     </row>
-    <row r="60" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16" t="s">
         <v>877</v>
@@ -5845,7 +5842,7 @@
       </c>
       <c r="O60" s="19"/>
     </row>
-    <row r="61" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="18" t="s">
         <v>878</v>
@@ -5866,7 +5863,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5936,7 +5933,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="16" t="s">
         <v>190</v>
@@ -6086,7 +6083,7 @@
       </c>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16" t="s">
         <v>279</v>
@@ -6185,7 +6182,7 @@
       </c>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="16" t="s">
         <v>205</v>
@@ -6237,7 +6234,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="19"/>
       <c r="J72" s="16" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
@@ -6274,7 +6271,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6290,7 +6287,7 @@
         <v>239</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L74" s="19" t="s">
         <v>239</v>
@@ -6332,7 +6329,7 @@
       </c>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>226</v>
       </c>
@@ -6392,7 +6389,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="17" t="s">
         <v>284</v>
@@ -6410,7 +6407,7 @@
         <v>286</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="16" t="s">
@@ -6485,7 +6482,7 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6516,7 +6513,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>235</v>
       </c>
@@ -6627,7 +6624,7 @@
       </c>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="16" t="s">
         <v>245</v>
@@ -6664,7 +6661,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6681,7 +6678,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>251</v>
       </c>
@@ -6753,7 +6750,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="16" t="s">
         <v>258</v>
@@ -6792,7 +6789,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16" t="s">
         <v>262</v>
@@ -6829,7 +6826,7 @@
       </c>
       <c r="O91" s="51"/>
     </row>
-    <row r="92" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="16" t="s">
         <v>829</v>
@@ -6854,7 +6851,7 @@
       </c>
       <c r="O92" s="19"/>
     </row>
-    <row r="93" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="16" t="s">
         <v>268</v>
@@ -6879,7 +6876,7 @@
       </c>
       <c r="O93" s="19"/>
     </row>
-    <row r="94" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="16" t="s">
         <v>271</v>
@@ -6925,7 +6922,7 @@
       </c>
       <c r="O95" s="19"/>
     </row>
-    <row r="96" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>273</v>
       </c>
@@ -6989,7 +6986,7 @@
       </c>
       <c r="O97" s="19"/>
     </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="3"/>
       <c r="H98" s="1"/>
       <c r="I98" s="4"/>
@@ -7052,7 +7049,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>292</v>
       </c>
@@ -7095,7 +7092,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>310</v>
       </c>
@@ -7208,7 +7205,7 @@
       </c>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="16" t="s">
         <v>300</v>
@@ -7245,7 +7242,7 @@
       </c>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="16" t="s">
         <v>301</v>
@@ -7266,7 +7263,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="19"/>
       <c r="J106" s="16" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K106" s="19" t="s">
         <v>807</v>
@@ -7361,7 +7358,7 @@
       </c>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="16" t="s">
         <v>306</v>
@@ -7400,7 +7397,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7454,7 +7451,7 @@
       </c>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>291</v>
       </c>
@@ -7483,7 +7480,7 @@
       </c>
       <c r="O113" s="19"/>
     </row>
-    <row r="114" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>321</v>
       </c>
@@ -7592,7 +7589,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="16" t="s">
         <v>326</v>
@@ -7633,7 +7630,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="16" t="s">
         <v>327</v>
@@ -7722,7 +7719,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7753,7 +7750,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>312</v>
       </c>
@@ -7784,7 +7781,7 @@
       <c r="N122" s="3"/>
       <c r="O122" s="4"/>
     </row>
-    <row r="123" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
       <c r="B123" s="16" t="s">
         <v>329</v>
@@ -7815,7 +7812,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="16" t="s">
         <v>316</v>
@@ -7850,7 +7847,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
         <v>317</v>
@@ -7883,7 +7880,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18"/>
       <c r="B126" s="16" t="s">
         <v>318</v>
@@ -7971,7 +7968,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="6"/>
     </row>
-    <row r="130" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>332</v>
       </c>
@@ -8045,7 +8042,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="16" t="s">
         <v>337</v>
@@ -8163,12 +8160,12 @@
       </c>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>320</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>27</v>
@@ -8202,7 +8199,7 @@
       </c>
       <c r="O136" s="19"/>
     </row>
-    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="55"/>
       <c r="B137" s="16" t="s">
         <v>340</v>
@@ -8338,7 +8335,7 @@
       </c>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -8359,7 +8356,7 @@
       </c>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8504,7 +8501,7 @@
       </c>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18"/>
       <c r="B147" s="16" t="s">
         <v>436</v>
@@ -8543,7 +8540,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="18"/>
       <c r="B148" s="16" t="s">
         <v>437</v>
@@ -8582,7 +8579,7 @@
       </c>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="16" t="s">
         <v>438</v>
@@ -8613,7 +8610,7 @@
       </c>
       <c r="O149" s="18"/>
     </row>
-    <row r="150" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
       <c r="B150" s="16" t="s">
         <v>439</v>
@@ -8650,7 +8647,7 @@
       </c>
       <c r="O150" s="19"/>
     </row>
-    <row r="151" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="16" t="s">
         <v>441</v>
@@ -8760,7 +8757,7 @@
       </c>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>808</v>
       </c>
@@ -8910,7 +8907,7 @@
       </c>
       <c r="O158" s="18"/>
     </row>
-    <row r="159" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="18"/>
       <c r="B159" s="16" t="s">
         <v>444</v>
@@ -9065,7 +9062,7 @@
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>447</v>
       </c>
@@ -9106,10 +9103,10 @@
       </c>
       <c r="O164" s="19"/>
     </row>
-    <row r="165" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="18"/>
       <c r="B165" s="16" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -9296,7 +9293,7 @@
       </c>
       <c r="O170" s="19"/>
     </row>
-    <row r="171" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
         <v>423</v>
       </c>
@@ -9335,7 +9332,7 @@
       </c>
       <c r="O171" s="19"/>
     </row>
-    <row r="172" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="16" t="s">
         <v>834</v>
@@ -9374,7 +9371,7 @@
       </c>
       <c r="O172" s="19"/>
     </row>
-    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="16"/>
       <c r="B173" s="16" t="s">
         <v>513</v>
@@ -9411,7 +9408,7 @@
       </c>
       <c r="O173" s="58"/>
     </row>
-    <row r="174" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
       <c r="B174" s="16" t="s">
         <v>452</v>
@@ -9448,7 +9445,7 @@
       </c>
       <c r="O174" s="19"/>
     </row>
-    <row r="175" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="42" t="s">
         <v>451</v>
@@ -9514,7 +9511,7 @@
       </c>
       <c r="O176" s="19"/>
     </row>
-    <row r="177" spans="1:15" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
       <c r="B177" s="16" t="s">
         <v>428</v>
@@ -9556,7 +9553,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -9594,7 +9591,7 @@
       <c r="N180" s="18"/>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="1:15" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>814</v>
       </c>
@@ -9678,7 +9675,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19"/>
       <c r="B183" s="19" t="s">
         <v>502</v>
@@ -9845,7 +9842,7 @@
       </c>
       <c r="O187" s="16"/>
     </row>
-    <row r="188" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>41</v>
       </c>
@@ -9878,7 +9875,7 @@
       <c r="N188" s="32"/>
       <c r="O188" s="32"/>
     </row>
-    <row r="189" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>509</v>
       </c>
@@ -10078,7 +10075,7 @@
       </c>
       <c r="O194" s="16"/>
     </row>
-    <row r="195" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="16" t="s">
         <v>519</v>
@@ -10134,7 +10131,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19"/>
       <c r="B197" s="16" t="s">
         <v>521</v>
@@ -10175,7 +10172,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16"/>
       <c r="B198" s="16" t="s">
         <v>522</v>
@@ -10325,7 +10322,7 @@
       </c>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="18"/>
       <c r="B202" s="16" t="s">
         <v>527</v>
@@ -10362,7 +10359,7 @@
       </c>
       <c r="O202" s="18"/>
     </row>
-    <row r="203" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="19"/>
       <c r="B203" s="16" t="s">
         <v>529</v>
@@ -10451,7 +10448,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10468,7 +10465,7 @@
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
     </row>
-    <row r="207" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>532</v>
       </c>
@@ -10499,7 +10496,7 @@
       <c r="N207" s="19"/>
       <c r="O207" s="19"/>
     </row>
-    <row r="208" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="18"/>
       <c r="B208" s="18" t="s">
         <v>838</v>
@@ -10540,7 +10537,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="32"/>
       <c r="B209" s="16" t="s">
         <v>533</v>
@@ -10579,7 +10576,7 @@
       </c>
       <c r="O209" s="19"/>
     </row>
-    <row r="210" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="19"/>
       <c r="B210" s="16" t="s">
         <v>560</v>
@@ -10636,7 +10633,7 @@
       <c r="G211" s="19"/>
       <c r="H211" s="2"/>
       <c r="I211" s="47" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J211" s="19" t="s">
         <v>591</v>
@@ -10725,7 +10722,7 @@
       </c>
       <c r="O213" s="58"/>
     </row>
-    <row r="214" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="19"/>
       <c r="B214" s="16" t="s">
         <v>538</v>
@@ -10797,7 +10794,7 @@
       </c>
       <c r="O215" s="58"/>
     </row>
-    <row r="216" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="19"/>
       <c r="B216" s="16" t="s">
         <v>541</v>
@@ -10832,7 +10829,7 @@
       </c>
       <c r="O216" s="58"/>
     </row>
-    <row r="217" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="16"/>
       <c r="B217" s="16" t="s">
         <v>542</v>
@@ -10863,7 +10860,7 @@
       </c>
       <c r="O217" s="58"/>
     </row>
-    <row r="218" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="16" t="s">
         <v>543</v>
@@ -10898,7 +10895,7 @@
       </c>
       <c r="O218" s="58"/>
     </row>
-    <row r="219" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="16" t="s">
         <v>544</v>
@@ -10929,7 +10926,7 @@
       </c>
       <c r="O219" s="58"/>
     </row>
-    <row r="220" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="16"/>
       <c r="B220" s="16" t="s">
         <v>545</v>
@@ -10964,7 +10961,7 @@
       </c>
       <c r="O220" s="58"/>
     </row>
-    <row r="221" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19"/>
       <c r="B221" s="16" t="s">
         <v>546</v>
@@ -11001,7 +10998,7 @@
       </c>
       <c r="O221" s="19"/>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="16"/>
       <c r="B222" s="16" t="s">
         <v>547</v>
@@ -11038,7 +11035,7 @@
       </c>
       <c r="O222" s="19"/>
     </row>
-    <row r="223" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16"/>
       <c r="B223" s="60" t="s">
         <v>841</v>
@@ -11112,7 +11109,7 @@
       </c>
       <c r="O224" s="19"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19"/>
       <c r="B225" s="16" t="s">
         <v>558</v>
@@ -11181,7 +11178,7 @@
       <c r="N227" s="3"/>
       <c r="O227" s="4"/>
     </row>
-    <row r="228" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
         <v>561</v>
       </c>
@@ -11214,7 +11211,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>551</v>
       </c>
@@ -11257,7 +11254,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="32"/>
       <c r="B230" s="16" t="s">
         <v>552</v>
@@ -11296,7 +11293,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A231" s="19"/>
       <c r="B231" s="16" t="s">
         <v>553</v>
@@ -11333,7 +11330,7 @@
       </c>
       <c r="O231" s="19"/>
     </row>
-    <row r="232" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="19"/>
       <c r="B232" s="16" t="s">
         <v>554</v>
@@ -11382,7 +11379,7 @@
       <c r="I233" s="2"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
@@ -11413,7 +11410,7 @@
       <c r="N235" s="18"/>
       <c r="O235" s="18"/>
     </row>
-    <row r="236" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>557</v>
       </c>
@@ -11454,7 +11451,7 @@
       </c>
       <c r="O236" s="16"/>
     </row>
-    <row r="237" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="32"/>
       <c r="B237" s="16" t="s">
         <v>556</v>
@@ -11586,7 +11583,7 @@
       </c>
       <c r="O240" s="42"/>
     </row>
-    <row r="241" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -11613,7 +11610,7 @@
       </c>
       <c r="O241" s="18"/>
     </row>
-    <row r="242" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="19" t="s">
         <v>611</v>
       </c>
@@ -11642,7 +11639,7 @@
       </c>
       <c r="O242" s="18"/>
     </row>
-    <row r="243" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="19" t="s">
         <v>41</v>
       </c>
@@ -11683,7 +11680,7 @@
       </c>
       <c r="O243" s="18"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="19" t="s">
         <v>656</v>
       </c>
@@ -11722,7 +11719,7 @@
       </c>
       <c r="O244" s="18"/>
     </row>
-    <row r="245" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="19" t="s">
         <v>657</v>
       </c>
@@ -11751,7 +11748,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="58"/>
       <c r="B246" s="64" t="s">
         <v>855</v>
@@ -11842,7 +11839,7 @@
       </c>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="19"/>
       <c r="B249" s="61" t="s">
         <v>660</v>
@@ -11881,7 +11878,7 @@
       </c>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="19"/>
       <c r="B250" s="61" t="s">
         <v>661</v>
@@ -11920,7 +11917,7 @@
         <v>4972</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="19"/>
       <c r="B251" s="61" t="s">
         <v>662</v>
@@ -11957,7 +11954,7 @@
       </c>
       <c r="O251" s="19"/>
     </row>
-    <row r="252" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="19"/>
       <c r="B252" s="19" t="s">
         <v>614</v>
@@ -11994,7 +11991,7 @@
       </c>
       <c r="O252" s="19"/>
     </row>
-    <row r="253" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="19"/>
       <c r="B253" s="61" t="s">
         <v>663</v>
@@ -12033,7 +12030,7 @@
       </c>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="47"/>
       <c r="B254" s="61" t="s">
         <v>664</v>
@@ -12070,7 +12067,7 @@
       </c>
       <c r="O254" s="16"/>
     </row>
-    <row r="255" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="19"/>
       <c r="B255" s="19" t="s">
         <v>666</v>
@@ -12101,7 +12098,7 @@
       </c>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="19"/>
       <c r="B256" s="47" t="s">
         <v>665</v>
@@ -12128,7 +12125,7 @@
       <c r="N256" s="16"/>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="19"/>
       <c r="B257" s="61" t="s">
         <v>667</v>
@@ -12155,7 +12152,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="19"/>
       <c r="B258" s="61" t="s">
         <v>668</v>
@@ -12194,7 +12191,7 @@
       </c>
       <c r="O258" s="16"/>
     </row>
-    <row r="259" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="19"/>
       <c r="B259" s="61" t="s">
         <v>669</v>
@@ -12225,7 +12222,7 @@
       <c r="N259" s="19"/>
       <c r="O259" s="19"/>
     </row>
-    <row r="260" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="19"/>
       <c r="B260" s="61" t="s">
         <v>670</v>
@@ -12297,7 +12294,7 @@
       </c>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="19"/>
       <c r="B262" s="61" t="s">
         <v>672</v>
@@ -12334,7 +12331,7 @@
       </c>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="19"/>
       <c r="B263" s="61" t="s">
         <v>673</v>
@@ -12371,7 +12368,7 @@
       </c>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="66"/>
       <c r="C264" s="4"/>
@@ -12388,18 +12385,18 @@
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="19" t="s">
         <v>813</v>
       </c>
       <c r="B265" s="61" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C265" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D265" s="32" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E265" s="61" t="s">
         <v>5</v>
@@ -12419,7 +12416,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -12448,7 +12445,7 @@
       </c>
       <c r="O266" s="32"/>
     </row>
-    <row r="267" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
         <v>674</v>
       </c>
@@ -12479,7 +12476,7 @@
         <v>4807</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="16" t="s">
         <v>618</v>
       </c>
@@ -12557,7 +12554,7 @@
       </c>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="16"/>
       <c r="B270" s="16" t="s">
         <v>622</v>
@@ -12594,7 +12591,7 @@
       </c>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
       <c r="B271" s="16" t="s">
         <v>624</v>
@@ -12668,7 +12665,7 @@
       </c>
       <c r="O272" s="18"/>
     </row>
-    <row r="273" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="16"/>
       <c r="B273" s="16" t="s">
         <v>627</v>
@@ -12705,7 +12702,7 @@
       </c>
       <c r="O273" s="19"/>
     </row>
-    <row r="274" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="19"/>
       <c r="B274" s="16" t="s">
         <v>675</v>
@@ -12742,7 +12739,7 @@
       </c>
       <c r="O274" s="19"/>
     </row>
-    <row r="275" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="18"/>
       <c r="B275" s="16" t="s">
         <v>628</v>
@@ -12779,7 +12776,7 @@
       </c>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="18"/>
       <c r="B276" s="16" t="s">
         <v>629</v>
@@ -12835,7 +12832,7 @@
       <c r="N277" s="18"/>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="18"/>
       <c r="B278" s="16" t="s">
         <v>632</v>
@@ -12872,7 +12869,7 @@
       <c r="N278" s="16"/>
       <c r="O278" s="19"/>
     </row>
-    <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="32"/>
       <c r="B279" s="44" t="s">
         <v>618</v>
@@ -12911,7 +12908,7 @@
       </c>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -12940,7 +12937,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="s">
         <v>677</v>
       </c>
@@ -12969,7 +12966,7 @@
       </c>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="16" t="s">
         <v>678</v>
       </c>
@@ -13045,7 +13042,7 @@
       </c>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="16"/>
       <c r="B284" s="67" t="s">
         <v>859</v>
@@ -13076,7 +13073,7 @@
       </c>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="16"/>
       <c r="B285" s="16" t="s">
         <v>633</v>
@@ -13136,7 +13133,7 @@
       <c r="N286" s="7"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="18"/>
       <c r="B287" s="16" t="s">
         <v>637</v>
@@ -13163,7 +13160,7 @@
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="18"/>
       <c r="B288" s="16" t="s">
         <v>639</v>
@@ -13190,7 +13187,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="18"/>
       <c r="B289" s="16" t="s">
         <v>641</v>
@@ -13219,7 +13216,7 @@
       <c r="N289" s="19"/>
       <c r="O289" s="19"/>
     </row>
-    <row r="290" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="18"/>
       <c r="B290" s="16" t="s">
         <v>643</v>
@@ -13260,7 +13257,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="16" t="s">
         <v>644</v>
@@ -13299,7 +13296,7 @@
       </c>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="4"/>
@@ -13328,7 +13325,7 @@
       </c>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
       <c r="C293" s="4"/>
@@ -13357,7 +13354,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="16" t="s">
         <v>645</v>
       </c>
@@ -13396,7 +13393,7 @@
       </c>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
         <v>646</v>
       </c>
@@ -13474,7 +13471,7 @@
       </c>
       <c r="O296" s="19"/>
     </row>
-    <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="18"/>
       <c r="B297" s="16" t="s">
         <v>649</v>
@@ -13511,7 +13508,7 @@
       </c>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="18"/>
       <c r="B298" s="16" t="s">
         <v>680</v>
@@ -13548,7 +13545,7 @@
       </c>
       <c r="O298" s="18"/>
     </row>
-    <row r="299" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="19"/>
       <c r="B299" s="16" t="s">
         <v>651</v>
@@ -13585,7 +13582,7 @@
       </c>
       <c r="O299" s="18"/>
     </row>
-    <row r="300" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="19"/>
       <c r="B300" s="16" t="s">
         <v>652</v>
@@ -13622,7 +13619,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="18"/>
       <c r="B301" s="16" t="s">
         <v>653</v>
@@ -13659,7 +13656,7 @@
       </c>
       <c r="O301" s="18"/>
     </row>
-    <row r="302" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="18"/>
       <c r="B302" s="16" t="s">
         <v>654</v>
@@ -13696,7 +13693,7 @@
       </c>
       <c r="O302" s="19"/>
     </row>
-    <row r="303" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="18"/>
       <c r="B303" s="16" t="s">
         <v>655</v>
@@ -13733,7 +13730,7 @@
       </c>
       <c r="O303" s="18"/>
     </row>
-    <row r="304" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="1"/>
@@ -13777,7 +13774,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="16" t="s">
         <v>729</v>
       </c>
@@ -13796,7 +13793,7 @@
       <c r="N306" s="4"/>
       <c r="O306" s="4"/>
     </row>
-    <row r="307" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="s">
         <v>41</v>
       </c>
@@ -13868,7 +13865,7 @@
       <c r="N308" s="19"/>
       <c r="O308" s="19"/>
     </row>
-    <row r="309" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="32"/>
       <c r="B309" s="16" t="s">
         <v>732</v>
@@ -13903,7 +13900,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="18"/>
     </row>
-    <row r="310" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="16"/>
       <c r="B310" s="16" t="s">
         <v>733</v>
@@ -13938,7 +13935,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="18"/>
     </row>
-    <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="16"/>
       <c r="B311" s="16" t="s">
         <v>734</v>
@@ -14008,7 +14005,7 @@
       <c r="N312" s="19"/>
       <c r="O312" s="19"/>
     </row>
-    <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -14058,7 +14055,7 @@
       <c r="N314" s="16"/>
       <c r="O314" s="16"/>
     </row>
-    <row r="315" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="s">
         <v>736</v>
       </c>
@@ -14095,7 +14092,7 @@
       <c r="N315" s="16"/>
       <c r="O315" s="16"/>
     </row>
-    <row r="316" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="16" t="s">
         <v>738</v>
       </c>
@@ -14161,7 +14158,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="18"/>
     </row>
-    <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="19"/>
       <c r="B318" s="16" t="s">
         <v>771</v>
@@ -14198,7 +14195,7 @@
       <c r="N318" s="19"/>
       <c r="O318" s="19"/>
     </row>
-    <row r="319" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="18"/>
       <c r="B319" s="17" t="s">
         <v>770</v>
@@ -14233,7 +14230,7 @@
       <c r="N319" s="18"/>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="18"/>
       <c r="B320" s="16" t="s">
         <v>742</v>
@@ -14297,7 +14294,7 @@
       <c r="N321" s="18"/>
       <c r="O321" s="18"/>
     </row>
-    <row r="322" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="18"/>
       <c r="B322" s="16" t="s">
         <v>745</v>
@@ -14374,7 +14371,7 @@
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="s">
         <v>746</v>
       </c>
@@ -14485,7 +14482,7 @@
       </c>
       <c r="O327" s="16"/>
     </row>
-    <row r="328" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="18"/>
       <c r="B328" s="16" t="s">
         <v>749</v>
@@ -14559,7 +14556,7 @@
       </c>
       <c r="O329" s="16"/>
     </row>
-    <row r="330" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="19"/>
       <c r="B330" s="16" t="s">
         <v>774</v>
@@ -14586,7 +14583,7 @@
       <c r="N330" s="4"/>
       <c r="O330" s="4"/>
     </row>
-    <row r="331" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -14603,7 +14600,7 @@
       <c r="N331" s="9"/>
       <c r="O331" s="9"/>
     </row>
-    <row r="332" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
         <v>773</v>
       </c>
@@ -14655,7 +14652,7 @@
       <c r="N333" s="7"/>
       <c r="O333" s="7"/>
     </row>
-    <row r="334" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="19"/>
       <c r="B334" s="16" t="s">
         <v>775</v>
@@ -14729,7 +14726,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="18"/>
       <c r="B337" s="16" t="s">
         <v>755</v>
@@ -14769,7 +14766,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -14779,7 +14776,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="16" t="s">
         <v>757</v>
       </c>
@@ -14799,7 +14796,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="18"/>
       <c r="B341" s="16" t="s">
         <v>760</v>
@@ -14817,7 +14814,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="18"/>
       <c r="B342" s="16" t="s">
         <v>762</v>
@@ -14835,7 +14832,7 @@
       <c r="G342" s="4"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="19"/>
       <c r="B343" s="16" t="s">
         <v>764</v>
@@ -14855,7 +14852,7 @@
       <c r="G343" s="4"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="19"/>
       <c r="B344" s="16" t="s">
         <v>766</v>
@@ -14891,7 +14888,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="18"/>
       <c r="B346" s="20">
         <v>508</v>
@@ -14909,7 +14906,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="18"/>
       <c r="B347" s="20">
         <v>509</v>
@@ -14927,7 +14924,7 @@
       <c r="G347" s="4"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="19"/>
       <c r="B348" s="16">
         <v>510</v>
@@ -14963,7 +14960,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="18"/>
       <c r="B350" s="16">
         <v>512</v>
@@ -14981,7 +14978,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="18"/>
       <c r="B351" s="42">
         <v>557</v>
@@ -15021,7 +15018,7 @@
       <c r="G352" s="7"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -15031,7 +15028,7 @@
       <c r="G353" s="11"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
@@ -15041,7 +15038,7 @@
       <c r="G354" s="11"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11"/>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
@@ -15051,7 +15048,7 @@
       <c r="G355" s="11"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
@@ -15061,7 +15058,7 @@
       <c r="G356" s="11"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -15070,60 +15067,60 @@
       <c r="F357" s="11"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="8:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="8:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="8:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="8:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="8:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="8:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="8:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="8:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="8:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H373" s="6"/>
     </row>
-    <row r="374" spans="8:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H374" s="6"/>
     </row>
-    <row r="377" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" spans="8:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="8:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:O381" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
